--- a/016/T2B/T2B.xlsx
+++ b/016/T2B/T2B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\faculdade\2º Ano\2ºS\LABS\LABSFISICAII\016\T2B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67835186-DF10-412B-9B55-E4BFF03D4CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4443C-FD4F-4182-9BB8-C817062EB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ADD7F163-C1A2-B04B-9D45-D2B9CEFFEB9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD7F163-C1A2-B04B-9D45-D2B9CEFFEB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Posição do alimentador</t>
   </si>
@@ -793,12 +793,36 @@
   <si>
     <t>T(K)</t>
   </si>
+  <si>
+    <t xml:space="preserve">R amb </t>
+  </si>
+  <si>
+    <t>400-700</t>
+  </si>
+  <si>
+    <t>2 mV + 0,001</t>
+  </si>
+  <si>
+    <t>R. Amb</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>(A PARTIR DE 4 V, INCERTEZA É 0,01 V E ANTES == 0,001 V)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
@@ -807,6 +831,7 @@
     <numFmt numFmtId="169" formatCode="0.000E+00"/>
     <numFmt numFmtId="170" formatCode="0.0E+00"/>
     <numFmt numFmtId="171" formatCode="0E+00"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -926,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,6 +1058,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1146,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29136073791.591</c:v>
+                  <c:v>12885303204.527393</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29136073791.591</c:v>
@@ -1127,7 +1158,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21831543736.237297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,7 +1182,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.175E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1219,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29136073791.591</c:v>
+                  <c:v>12885303204.527393</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29136073791.591</c:v>
@@ -1200,7 +1231,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21831543736.237297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,19 +1243,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0274133529912236E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2792237610330347E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2792237610330347E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.9124724105775254E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.0650144008369348E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1314,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21850313923.634293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1338,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.1476000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1387,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21850313923.634293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,19 +1399,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.3638711626047908E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.9007752587753514E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1470,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21907058096.008751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,7 +1494,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.1370000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1543,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21907058096.008751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,19 +1555,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7564481320568011E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7564481320568011E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.6181201992106981E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-4.6181201992106981E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.5477277757285292E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1626,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21983749917.971371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,7 +1650,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.753E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,7 +1699,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21983749917.971371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,19 +1711,19 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9967117793747831E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.9967117793747831E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.5643148425078233E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1.5643148425078233E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.6652061262660653E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2168,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29136073791.591</c:v>
+                  <c:v>12885303204.527393</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29136073791.591</c:v>
@@ -2149,7 +2180,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21831543736.237297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,19 +2192,19 @@
                 <c:formatCode>0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.0274133529912236E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.2792237610330347E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2792237610330347E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.9124724105775254E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.6849855991630656E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2641,7 +2672,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21850313923.634293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2653,19 +2684,19 @@
                 <c:formatCode>0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.9796986346098163E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.3638711626047908E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-6.5752247412246504E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3155,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21907058096.008751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,19 +3167,19 @@
                 <c:formatCode>0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7564481320568011E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7564481320568011E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.6181201992106981E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-4.6181201992106981E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.5892722242714709E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,7 +3571,7 @@
                   <c:v>49401775789.335495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49401775789.335495</c:v>
+                  <c:v>21983749917.971371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3552,19 +3583,19 @@
                 <c:formatCode>0E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.9967117793747831E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.9967117793747831E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.5643148425078233E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1.5643148425078233E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-8.8647938737339347E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,67 +3978,58 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.2848000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.0467000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.7317499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.6163999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.6385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.3917249999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.32625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>11.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12.380800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.560700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15.947699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>17.163899999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>19.396999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>20.810400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>0.83439000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>1.2967199999999999</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>13.082199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>14.213699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4019,67 +4041,58 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7060000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1219999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.6099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.7060000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.2529999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.7949999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.398E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.9850000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.2270000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8.0500000000000016E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.7690000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.0060000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.0840000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1.4999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.6000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>6.2300000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.7800000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,28 +4139,28 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7936000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.5515999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.695599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.00969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5462400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0932599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.4079999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,28 +4172,28 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.4800000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.1070000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.3699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.9000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.5300000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4.2999999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9.6400000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4217,91 +4230,82 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7936000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.5515999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>13.695599999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18.369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.00969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5462400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0932599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.4079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.2848000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.0467000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.7317499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.6163999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.6385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9.3917249999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>10.32625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>11.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>12.380800000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14.560700000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>15.947699999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>17.163899999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>19.396999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>20.810400000000001</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>0.83439000000000008</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>1.2967199999999999</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>13.082199999999998</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>14.213699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,94 +4314,85 @@
             <c:numRef>
               <c:f>'Parte 2'!$N$7:$N$35</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.4795104827323866E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.3468621219743073E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.702833041860679E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.2560801883315239E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.2645488982807977E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.661903547547387E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.6541187606731044E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.083548140261876E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5624731569539945E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.978637584665815E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.352825064917794E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.836037902528061E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.9405477978897534E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.3519737738226E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.8624292952918081E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4270834193856461E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.984664004512601E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.1753672936174682E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7.9329733590280151E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.5972851807672411E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9.8170473326549788E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.0589073585611914E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-3.2220712001298883E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-6.9673585606890801E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>6.3677821690972846E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.985829222458521E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4800,9 +4795,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Dados Exp.</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -4827,138 +4819,174 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 2'!$M$16:$M$35</c:f>
+              <c:f>'Parte 2'!$M$7:$M$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.0720914117869915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.2036500552649096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.2762733190046553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.3129868291207454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.9165355227023659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.9839817895097061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0254265591679785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.0979184845479169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.1235059718687253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.1494813494031955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.1667768691899538</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.1850227880865321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.2185709044223096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.2299432602134575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2433071870648513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.254868776589817</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.2662308802918294</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2868824027179118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.2969480436789005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.3057837917491555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3199482892845902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3287630747749728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8869672014837899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9546330676191301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2716036719958663</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2827578127435286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 2'!$P$16:$P$35</c:f>
+              <c:f>'Parte 2'!$P$7:$P$32</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3.0716041477432863</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00000">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.5076587467450255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.1870866433571443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0282604091122218</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000">
+                  <c:v>-3.7212463990471711</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0000">
+                  <c:v>-3.596879478824182</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>-3.3665315444204134</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0000">
+                  <c:v>-3.0159229660971691</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0000">
+                  <c:v>-2.9172146296835502</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0000">
+                  <c:v>-2.7680209731684959</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0000">
+                  <c:v>-2.6732546204346783</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.5833594926617192</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.4310945850171213</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.3713046172859769</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.3192113884933176</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.267767119779502</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.2229358452575703</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.141041945281994</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.0942041196321313</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00000">
-                  <c:v>0</c:v>
+                  <c:v>-2.057049929922901</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00000">
+                  <c:v>-1.9974020192800914</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00000">
+                  <c:v>-1.9649707177976319</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00000">
+                  <c:v>-3.8239087409443187</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00000">
+                  <c:v>-3.795880017344075</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00000">
+                  <c:v>-2.2055119533408303</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00000">
+                  <c:v>-2.1687703061329366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4992,67 +5020,58 @@
             <c:numRef>
               <c:f>'Parte 2'!$M$16:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1494813494031955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.1667768691899538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.1850227880865321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.2185709044223096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2299432602134575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.2433071870648513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.254868776589817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2662308802918294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.2868824027179118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.2969480436789005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.3057837917491555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.3199482892845902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.3287630747749728</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.8869672014837899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.9546330676191301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.2716036719958663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.2827578127435286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5064,64 +5083,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.7577627398760196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-2.6797236119766605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.5973961875357041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.4460237064660841</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.3947104913072152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2.3344111068624596</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-2.2822440500302363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-2.2309770933305018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-2.1377953433862533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-2.0923781571999776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-2.0525103716553605</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1.9885987316221865</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-1.9488255313500531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-3.9422530250745247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-3.636937819352891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.2067345158227152</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-2.1564059089264536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,8 +5158,6 @@
         <c:axId val="1465091423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.42"/>
-          <c:min val="3.24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5262,13 +5270,12 @@
         <c:crossAx val="1467241439"/>
         <c:crossesAt val="-90"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1467241439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="-1.7000000000000002"/>
+          <c:max val="-1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5541,67 +5548,58 @@
             <c:numRef>
               <c:f>'Parte 2'!$M$16:$M$35</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1494813494031955</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.1667768691899538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.1850227880865321</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.2185709044223096</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.2299432602134575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.2433071870648513</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.254868776589817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2662308802918294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.2868824027179118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.2969480436789005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.3057837917491555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.3199482892845902</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.3287630747749728</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.8869672014837899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.9546330676191301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.2716036719958663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.2827578127435286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5613,64 +5611,55 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0258233292476326E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-6.4689915419822164E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-1.4036694873984956E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-1.4929121448962857E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.3405874021238393E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-1.5199718369141912E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.4476930250734377E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-8.041248072931495E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.2466018957406639E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.825962432153716E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4.5395582675404889E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.8032876579049457E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.6145186447578785E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-0.11834428413020603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.15894219799118403</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-1.2225624818849035E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.236439720648308E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5697,8 +5686,6 @@
         <c:axId val="1151465599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.42"/>
-          <c:min val="3.24"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5811,7 +5798,6 @@
         <c:crossAx val="1151367759"/>
         <c:crossesAt val="-90"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1151367759"/>
@@ -6092,67 +6078,58 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.2848000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.0467000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.7317499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.6163999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8.6385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.3917249999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.32625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>11.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12.380800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.560700000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15.947699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>17.163899999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>19.396999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>20.810400000000001</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>0.83439000000000008</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>1.2967199999999999</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>13.082199999999998</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>14.213699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,70 +6138,61 @@
             <c:numRef>
               <c:f>'Parte 2'!$O$15:$O$35</c:f>
               <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
+                <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5247315695399457E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7263758466581495E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.3082506491779427E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.2603790252806108E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.3454779788975328E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.8973773822600211E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.7429295291808293E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.9083419385646063E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-3.359954873997234E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-5.1632706382532569E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-1.1702664097198653E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-1.7171481923275965E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-2.429526673450224E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-2.5092641438808662E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-4.7220712001298879E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.2967358560689081E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.3778216909728427E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00000">
+                  <c:v>2.0582922245852061E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6498,8 +6466,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19602829032987149"/>
-          <c:y val="6.9673642498689514E-2"/>
+          <c:x val="0.77535463536415072"/>
+          <c:y val="8.8918497281070707E-2"/>
           <c:w val="0.10889068058680232"/>
           <c:h val="7.7369078657528109E-2"/>
         </c:manualLayout>
@@ -11106,8 +11074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CEC0E9-8704-9340-ADAF-61A97903F87A}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="67" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -11131,7 +11099,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -11148,7 +11118,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>1205</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -11165,14 +11137,20 @@
       <c r="E3" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="33" t="e">
+      <c r="F3" s="33">
         <f>M10/$M$10</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="1">
+        <v>920</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -11191,13 +11169,15 @@
       <c r="E4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="19" t="e">
+      <c r="F4" s="19">
         <f>M19/$M$10</f>
-        <v>#DIV/0!</v>
+        <v>2.4510674545988063</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>809</v>
+      </c>
       <c r="K4" s="17"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -11218,13 +11198,15 @@
       <c r="E5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="19" t="e">
+      <c r="F5" s="19">
         <f>M28/$M$10</f>
-        <v>#DIV/0!</v>
+        <v>1.0175043034303604</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>628</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -11244,13 +11226,15 @@
       <c r="E6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="19" t="e">
+      <c r="F6" s="19">
         <f>M37/$M$10</f>
-        <v>#DIV/0!</v>
+        <v>0.34682032760032294</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>831</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -11365,10 +11349,10 @@
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" ref="M10:N14">LINEST(H11:H15,_xlfn.ANCHORARRAY(F11),1,1)</f>
-        <v>0</v>
+        <v>-1.0757579664251933E-13</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>5.4135601101986649E-3</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>5</v>
@@ -11386,18 +11370,20 @@
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>19.600000000000001</v>
+      </c>
       <c r="D11" s="14">
         <f>C11*10^3</f>
-        <v>0</v>
+        <v>19600</v>
       </c>
       <c r="E11" s="21" cm="1">
         <f t="array" ref="E11:E13">-6.981*10^(-21)*(D11:D13)^5+7.106*10^(-16)*(D11:D13)^4-3.031*10^(-11)*(D11:D13)^3+7.094*10^(-7)*(D11:D13)^2-1.047*10^(-2)*(D11:D13)+1.4*10^2</f>
-        <v>140</v>
+        <v>63.76757069548546</v>
       </c>
       <c r="F11" s="5" cm="1">
         <f t="array" ref="F11:F15">(E11:E15+273.15)^4</f>
-        <v>29136073791.591</v>
+        <v>12885303204.527393</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3">
@@ -11406,21 +11392,21 @@
       </c>
       <c r="I11" s="3" cm="1">
         <f t="array" ref="I11:I15">$M$10*_xlfn.ANCHORARRAY(F11)+$N$10</f>
-        <v>0</v>
+        <v>4.0274133529912236E-3</v>
       </c>
       <c r="J11" s="16">
         <f>I11-H11</f>
-        <v>0</v>
+        <v>4.0274133529912236E-3</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="34" t="s">
         <v>3</v>
       </c>
       <c r="M11" s="16">
-        <v>0</v>
+        <v>2.164617177186372E-13</v>
       </c>
       <c r="N11" s="16">
-        <v>0</v>
+        <v>6.693537012859096E-3</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>6</v>
@@ -11455,21 +11441,21 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>2.2792237610330347E-3</v>
       </c>
       <c r="J12" s="16">
         <f>I12-H12</f>
-        <v>0</v>
+        <v>2.2792237610330347E-3</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="34" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="8">
-        <v>1</v>
+        <v>7.6065361791162966E-2</v>
       </c>
       <c r="N12" s="16">
-        <v>0</v>
+        <v>5.8323403190076294E-3</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>7</v>
@@ -11504,16 +11490,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>2.2792237610330347E-3</v>
       </c>
       <c r="J13" s="16">
         <f>I13-H13</f>
-        <v>0</v>
+        <v>2.2792237610330347E-3</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="4" t="e">
-        <v>#NUM!</v>
+      <c r="M13" s="4">
+        <v>0.24698293140722119</v>
       </c>
       <c r="N13" s="4">
         <v>3</v>
@@ -11550,19 +11536,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>9.9124724105775254E-5</v>
       </c>
       <c r="J14" s="16">
         <f>I14-H14</f>
-        <v>0</v>
+        <v>9.9124724105775254E-5</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>8.4014192098339499E-6</v>
       </c>
       <c r="N14" s="4">
-        <v>0</v>
+        <v>1.0204858079016605E-4</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -11578,28 +11564,32 @@
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6">
+        <v>3.92</v>
+      </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3920</v>
       </c>
       <c r="E15" s="6">
-        <v>198.3</v>
+        <v>111.23914209268862</v>
       </c>
       <c r="F15" s="5">
-        <v>49401775789.335495</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>21831543736.237297</v>
+      </c>
+      <c r="G15" s="2">
+        <v>11.75</v>
+      </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.175E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>3.0650144008369348E-3</v>
       </c>
       <c r="J15" s="16">
         <f>I15-H15</f>
-        <v>0</v>
+        <v>-8.6849855991630656E-3</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="17"/>
@@ -11721,10 +11711,10 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" ref="M19:N23">LINEST(H20:H24,_xlfn.ANCHORARRAY(F20),1,1)</f>
-        <v>0</v>
+        <v>-2.6367553405301867E-13</v>
       </c>
       <c r="N19" s="15">
-        <v>0</v>
+        <v>1.0662168451815734E-2</v>
       </c>
       <c r="O19" s="34" t="s">
         <v>5</v>
@@ -11762,21 +11752,21 @@
       </c>
       <c r="I20" s="3" cm="1">
         <f t="array" ref="I20:I24">$M$19*_xlfn.ANCHORARRAY(F20)+$N$19</f>
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="J20" s="16">
         <f>I20-H20</f>
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="34" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="16">
-        <v>0</v>
+        <v>2.4183140379006093E-13</v>
       </c>
       <c r="N20" s="16">
-        <v>0</v>
+        <v>7.9948628609096059E-3</v>
       </c>
       <c r="O20" s="34" t="s">
         <v>6</v>
@@ -11811,21 +11801,21 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="J21" s="16">
         <f>I21-H21</f>
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="34" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="8">
-        <v>1</v>
+        <v>0.28380699489972011</v>
       </c>
       <c r="N21" s="16">
-        <v>0</v>
+        <v>5.0152194744362581E-3</v>
       </c>
       <c r="O21" s="34" t="s">
         <v>7</v>
@@ -11860,16 +11850,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="J22" s="16">
         <f>I22-H22</f>
-        <v>0</v>
+        <v>2.9796986346098163E-3</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="4" t="e">
-        <v>#NUM!</v>
+      <c r="M22" s="4">
+        <v>1.1888149962871337</v>
       </c>
       <c r="N22" s="4">
         <v>3</v>
@@ -11906,19 +11896,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-2.3638711626047908E-3</v>
       </c>
       <c r="J23" s="16">
         <f>I23-H23</f>
-        <v>0</v>
+        <v>-2.3638711626047908E-3</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>2.9901581669705929E-5</v>
       </c>
       <c r="N23" s="4">
-        <v>0</v>
+        <v>7.5457279130294094E-5</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -11934,28 +11924,32 @@
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="6">
+        <v>3.91</v>
+      </c>
       <c r="D24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3910</v>
       </c>
       <c r="E24" s="6">
-        <v>198.3</v>
+        <v>111.32173738737112</v>
       </c>
       <c r="F24" s="3">
-        <v>49401775789.335495</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>21850313923.634293</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11.476000000000001</v>
+      </c>
       <c r="H24" s="3">
         <f t="shared" ref="H24" si="4">G24*10^-3</f>
-        <v>0</v>
+        <v>1.1476000000000002E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>4.9007752587753514E-3</v>
       </c>
       <c r="J24" s="16">
         <f>I24-H24</f>
-        <v>0</v>
+        <v>-6.5752247412246504E-3</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -12077,10 +12071,10 @@
       </c>
       <c r="M28" s="15" cm="1">
         <f t="array" ref="M28:N32">LINEST(H29:H33,_xlfn.ANCHORARRAY(F29),1,1)</f>
-        <v>0</v>
+        <v>-1.0945883602871273E-13</v>
       </c>
       <c r="N28" s="15">
-        <v>0</v>
+        <v>4.945648855731035E-3</v>
       </c>
       <c r="O28" s="34" t="s">
         <v>5</v>
@@ -12118,21 +12112,21 @@
       </c>
       <c r="I29" s="3" cm="1">
         <f t="array" ref="I29:I33">$M$28*_xlfn.ANCHORARRAY(F29)+$N$28</f>
-        <v>0</v>
+        <v>1.7564481320568011E-3</v>
       </c>
       <c r="J29" s="16">
         <f>I29-H29</f>
-        <v>0</v>
+        <v>1.7564481320568011E-3</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="M29" s="16">
-        <v>0</v>
+        <v>8.2472743065409563E-14</v>
       </c>
       <c r="N29" s="16">
-        <v>0</v>
+        <v>3.0987835045886004E-3</v>
       </c>
       <c r="O29" s="34" t="s">
         <v>6</v>
@@ -12167,21 +12161,21 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>1.7564481320568011E-3</v>
       </c>
       <c r="J30" s="16">
         <f>I30-H30</f>
-        <v>0</v>
+        <v>1.7564481320568011E-3</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="34" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="6">
-        <v>1</v>
+        <v>0.36994543890610554</v>
       </c>
       <c r="N30" s="16">
-        <v>0</v>
+        <v>2.1056346166166097E-3</v>
       </c>
       <c r="O30" s="34" t="s">
         <v>7</v>
@@ -12217,16 +12211,16 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>-4.6181201992106981E-4</v>
       </c>
       <c r="J31" s="16">
         <f>I31-H31</f>
-        <v>0</v>
+        <v>-4.6181201992106981E-4</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="4" t="e">
-        <v>#NUM!</v>
+      <c r="M31" s="4">
+        <v>1.7614923932800832</v>
       </c>
       <c r="N31" s="4">
         <v>3</v>
@@ -12262,19 +12256,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-4.6181201992106981E-4</v>
       </c>
       <c r="J32" s="16">
         <f>I32-H32</f>
-        <v>0</v>
+        <v>-4.6181201992106981E-4</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="4">
-        <v>0</v>
+        <v>7.8099237839174637E-6</v>
       </c>
       <c r="N32" s="4">
-        <v>0</v>
+        <v>1.3301091416082532E-5</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -12290,28 +12284,32 @@
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="6">
+        <v>3.88</v>
+      </c>
       <c r="D33" s="14">
         <f>C33*10^3</f>
-        <v>0</v>
+        <v>3880</v>
       </c>
       <c r="E33" s="25">
-        <v>198.3</v>
+        <v>111.57110813530758</v>
       </c>
       <c r="F33" s="17">
-        <v>49401775789.335495</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>21907058096.008751</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5.1369999999999996</v>
+      </c>
       <c r="H33" s="3">
         <f>G33*10^-3</f>
-        <v>0</v>
+        <v>5.1370000000000001E-3</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>2.5477277757285292E-3</v>
       </c>
       <c r="J33" s="16">
         <f>I33-H33</f>
-        <v>0</v>
+        <v>-2.5892722242714709E-3</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -12429,10 +12427,10 @@
       </c>
       <c r="M37" s="16" cm="1">
         <f t="array" ref="M37:N41">LINEST(H38:H42,_xlfn.ANCHORARRAY(F38),1,1)</f>
-        <v>0</v>
+        <v>-3.7309473033424271E-14</v>
       </c>
       <c r="N37" s="13">
-        <v>0</v>
+        <v>1.6867227373647024E-3</v>
       </c>
       <c r="O37" s="34" t="s">
         <v>5</v>
@@ -12470,21 +12468,21 @@
       </c>
       <c r="I38" s="3" cm="1">
         <f t="array" ref="I38:I42">$M$37*_xlfn.ANCHORARRAY(F38)+$N$37</f>
-        <v>0</v>
+        <v>5.9967117793747831E-4</v>
       </c>
       <c r="J38" s="16">
         <f>I38-H38</f>
-        <v>0</v>
+        <v>5.9967117793747831E-4</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="34" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="16">
-        <v>0</v>
+        <v>2.8235882678654327E-14</v>
       </c>
       <c r="N38" s="13">
-        <v>0</v>
+        <v>1.0611717718167222E-3</v>
       </c>
       <c r="O38" s="34" t="s">
         <v>6</v>
@@ -12519,21 +12517,21 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>5.9967117793747831E-4</v>
       </c>
       <c r="J39" s="16">
         <f>I39-H39</f>
-        <v>0</v>
+        <v>5.9967117793747831E-4</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="34" t="s">
         <v>4</v>
       </c>
       <c r="M39" s="6">
-        <v>1</v>
+        <v>0.36788406490773451</v>
       </c>
       <c r="N39" s="16">
-        <v>0</v>
+        <v>7.1972179024619367E-4</v>
       </c>
       <c r="O39" s="34" t="s">
         <v>7</v>
@@ -12569,16 +12567,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>-1.5643148425078233E-4</v>
       </c>
       <c r="J40" s="16">
         <f>I40-H40</f>
-        <v>0</v>
+        <v>-1.5643148425078233E-4</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="4" t="e">
-        <v>#NUM!</v>
+      <c r="M40" s="4">
+        <v>1.7459648356469788</v>
       </c>
       <c r="N40" s="4">
         <v>3</v>
@@ -12613,19 +12611,19 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>-1.5643148425078233E-4</v>
       </c>
       <c r="J41" s="16">
         <f>I41-H41</f>
-        <v>0</v>
+        <v>-1.5643148425078233E-4</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="4">
-        <v>0</v>
+        <v>9.0440883393444181E-7</v>
       </c>
       <c r="N41" s="4">
-        <v>0</v>
+        <v>1.5539983660655581E-6</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -12634,28 +12632,32 @@
       <c r="B42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="6">
+        <v>3.84</v>
+      </c>
       <c r="D42" s="14">
         <f>C42*10^3</f>
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="E42" s="6">
-        <v>198.3</v>
+        <v>111.90737313722209</v>
       </c>
       <c r="F42" s="3">
-        <v>49401775789.335495</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>21983749917.971371</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.7529999999999999</v>
+      </c>
       <c r="H42" s="3">
         <f>G42*10^-3</f>
-        <v>0</v>
+        <v>1.753E-3</v>
       </c>
       <c r="I42" s="24">
-        <v>0</v>
+        <v>8.6652061262660653E-4</v>
       </c>
       <c r="J42" s="16">
         <f>I42-H42</f>
-        <v>0</v>
+        <v>-8.8647938737339347E-4</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -12669,10 +12671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A160C481-1677-5247-ACAB-A094F12BDCA0}">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="69" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -12683,7 +12685,8 @@
     <col min="6" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.796875" customWidth="1"/>
     <col min="16" max="16" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.296875" bestFit="1" customWidth="1"/>
@@ -12691,12 +12694,13 @@
     <col min="19" max="19" width="17.09765625" customWidth="1"/>
     <col min="20" max="20" width="15.69921875" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5" customWidth="1"/>
-    <col min="23" max="23" width="15.296875" customWidth="1"/>
-    <col min="24" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="24" width="15.296875" customWidth="1"/>
+    <col min="25" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12724,15 +12728,16 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1"/>
       <c r="B2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="8" t="e">
-        <f>E2/(G2*10^(-3))</f>
-        <v>#DIV/0!</v>
+      <c r="C2" s="8">
+        <f>Y6</f>
+        <v>0.63620517513936237</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>49</v>
@@ -12746,7 +12751,9 @@
       <c r="I2" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>0.01</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -12764,15 +12771,16 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1"/>
       <c r="B3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="e">
-        <f>SQRT((1/((G2*10^(-3))^2)*0.001^2+(-E2/((G2*10^(-3))^2))^2*(0.1*10^(-3))^2))</f>
-        <v>#DIV/0!</v>
+      <c r="C3" s="8">
+        <f>Y7</f>
+        <v>6.6828395463376907E-3</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>39</v>
@@ -12786,9 +12794,13 @@
       <c r="I3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="26">
+        <v>1E-3</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -12804,15 +12816,16 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1"/>
       <c r="B4" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="18" t="e">
+      <c r="C4" s="18">
         <f>((C3/C2)*100)</f>
-        <v>#DIV/0!</v>
+        <v>1.0504220662577601</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>55</v>
@@ -12832,7 +12845,9 @@
       <c r="I4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>1E-3</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -12850,8 +12865,9 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -12872,15 +12888,18 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1"/>
       <c r="B6" s="34" t="s">
         <v>46</v>
@@ -12936,1473 +12955,1749 @@
       <c r="S6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="U6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Y6">
+        <f t="array" ref="Y6:Z8">LINEST(V7:V11,W7:W11,1,1)</f>
+        <v>0.63620517513936237</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-3.0098302687411177E-3</v>
+      </c>
       <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="8">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.84799999999999998</v>
+      </c>
       <c r="E7" s="11">
         <f>D7*10^-3</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="e">
+        <v>8.4800000000000001E-4</v>
+      </c>
+      <c r="F7" s="8">
         <f>B7/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="8" t="e">
+        <v>3.4488888888888889</v>
+      </c>
+      <c r="G7" s="8">
         <f>SQRT((1/C7)^2*$J$2^2+(-B7/(C7^2))^2*$J$2^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="6" t="e">
+        <v>3.9899309328935484E-2</v>
+      </c>
+      <c r="H7" s="6">
         <f>F7/$C$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="6" t="e">
+        <v>5.4210324336538145</v>
+      </c>
+      <c r="I7" s="6">
         <f>SQRT(((G7/$C$2)^2)+(((F7*$C$3)/($C$2^2))^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="18" t="e">
+        <v>8.4709502290808508E-2</v>
+      </c>
+      <c r="J7" s="18">
         <f>-1.6181*(H7^2)+202.98*H7+127.76</f>
-        <v>#DIV/0!</v>
+        <v>1180.5690997213828</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K35" si="0">B7*C7</f>
-        <v>0</v>
+        <v>2.7936000000000001</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" ref="L7:L35" si="1">SQRT(C7^2*$J$3^2+B7^2*$J$2^2)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="13" t="e" cm="1">
-        <f t="array" ref="M7:M35">LOG(J7:J35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="9" cm="1">
-        <f t="array" ref="N7:N35">$Q$38*K7:K35+$R$38</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" ref="O7:O35" si="2">N7-E7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="8" t="e">
-        <f t="shared" ref="P7:P35" si="3">LOG(E7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q7" s="8" t="e" cm="1">
-        <f t="array" ref="Q7:Q35">$J$4/(LN(10)*E7:E35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="10" t="e">
-        <f t="shared" ref="R7:R35" si="4">$Q$46*M7+$R$46</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" s="10" t="e">
+        <v>3.1053044939264814E-2</v>
+      </c>
+      <c r="M7" s="43">
+        <f>LOG(J7)</f>
+        <v>3.0720914117869915</v>
+      </c>
+      <c r="N7" s="43">
+        <f>$Q$38*K7+$R$38</f>
+        <v>7.4795104827323866E-4</v>
+      </c>
+      <c r="O7" s="43">
+        <f>N7-E7</f>
+        <v>-1.0004895172676135E-4</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" ref="P7:P35" si="2">LOG(E7)</f>
+        <v>-3.0716041477432863</v>
+      </c>
+      <c r="Q7" s="8">
+        <f>$J$4/(LN(10)*E7)</f>
+        <v>0.51213971922553281</v>
+      </c>
+      <c r="R7" s="10">
+        <f>$Q$46*M7+$R$46</f>
+        <v>-3.1069539358745484</v>
+      </c>
+      <c r="S7" s="10">
         <f>R7-P7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="AA7" s="1"/>
+        <v>-3.5349788131262105E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="V7" s="2">
+        <f>U7*10^-3</f>
+        <v>2.06E-2</v>
+      </c>
+      <c r="W7" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>6.6828395463376907E-3</v>
+      </c>
+      <c r="Z7">
+        <v>7.2115858905125424E-4</v>
+      </c>
+      <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="8">
+        <v>6.09</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.1070000000000002</v>
+      </c>
       <c r="E8" s="11">
-        <f t="shared" ref="E8:E32" si="5">D8*10^-3</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="e">
-        <f t="shared" ref="F8:F32" si="6">B8/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="8" t="e">
-        <f t="shared" ref="G8:G35" si="7">SQRT((1/C8)^2*$J$2^2+(-B8/(C8^2))^2*$J$2^2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="6" t="e">
-        <f t="shared" ref="H8:H32" si="8">F8/$C$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="6" t="e">
-        <f t="shared" ref="I8:I32" si="9">SQRT(((G8/$C$2)^2)+(((F8*$C$3)/($C$2^2))^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="18" t="e">
-        <f t="shared" ref="J8:J32" si="10">-1.6181*(H8^2)+202.98*H8+127.76</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="E8:E32" si="3">D8*10^-3</f>
+        <v>3.1070000000000004E-3</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F32" si="4">B8/C8</f>
+        <v>4.911290322580645</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" ref="G8:G35" si="5">SQRT((1/C8)^2*$J$2^2+(-B8/(C8^2))^2*$J$2^2)</f>
+        <v>4.041986058358444E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H32" si="6">F8/$C$2</f>
+        <v>7.7196642128929778</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" ref="I8:I32" si="7">SQRT(((G8/$C$2)^2)+(((F8*$C$3)/($C$2^2))^2))</f>
+        <v>0.1030138079538999</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" ref="J8:J32" si="8">-1.6181*(H8^2)+202.98*H8+127.76</f>
+        <v>1598.2696598356708</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5515999999999996</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
+        <v>6.0912622665585496E-2</v>
+      </c>
+      <c r="M8" s="43">
+        <f t="shared" ref="M8:M32" si="9">LOG(J8)</f>
+        <v>3.2036500552649096</v>
+      </c>
+      <c r="N8" s="43">
+        <f t="shared" ref="N8:N32" si="10">$Q$38*K8+$R$38</f>
+        <v>3.3468621219743073E-3</v>
+      </c>
+      <c r="O8" s="43">
+        <f t="shared" ref="O7:O35" si="11">N8-E8</f>
+        <v>2.3986212197430693E-4</v>
+      </c>
+      <c r="P8" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="e">
+        <v>-2.5076587467450255</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" ref="Q8:Q32" si="12">$J$4/(LN(10)*E8)</f>
+        <v>0.13977936334188984</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" ref="R7:R35" si="13">$Q$46*M8+$R$46</f>
+        <v>-2.5133480812242723</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" ref="S8:S32" si="14">R8-P8</f>
+        <v>-5.6893344792467992E-3</v>
+      </c>
+      <c r="U8" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8:V11" si="15">U8*10^-3</f>
+        <v>3.95E-2</v>
+      </c>
+      <c r="W8" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Y8">
+        <v>0.99966909358012024</v>
+      </c>
+      <c r="Z8">
+        <v>6.5530004081719971E-4</v>
+      </c>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="11">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q8" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="10" t="e">
+        <v>6.5000000000000006E-3</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" s="10" t="e">
-        <f t="shared" ref="S8:S32" si="11">R8-P8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="AA8" s="1"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11">
+        <v>5.9669966996699664</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="e">
+        <v>3.9935384212679989E-2</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="8" t="e">
+        <v>9.3790445800175721</v>
+      </c>
+      <c r="I9" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="6" t="e">
+        <v>0.11681750883651715</v>
+      </c>
+      <c r="J9" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1889.1799120397009</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.695599999999997</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
+        <v>9.0412693937300628E-2</v>
+      </c>
+      <c r="M9" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2762733190046553</v>
+      </c>
+      <c r="N9" s="43">
+        <f t="shared" si="10"/>
+        <v>6.702833041860679E-3</v>
+      </c>
+      <c r="O9" s="43">
+        <f t="shared" si="11"/>
+        <v>2.0283304186067847E-4</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="e">
+        <v>-2.1870866433571443</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="12"/>
+        <v>6.6814535677423348E-2</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="13"/>
+        <v>-2.1856645980256939</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="14"/>
+        <v>1.4220453314504056E-3</v>
+      </c>
+      <c r="U9" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="15"/>
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="30"/>
+      <c r="Z9" s="32"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1.67</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q9" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="10" t="e">
+        <v>9.3699999999999999E-3</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S9" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="30"/>
-      <c r="Y9" s="32"/>
-      <c r="AA9" s="1"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11">
+        <v>6.5868263473053892</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="e">
+        <v>3.98940299696664E-2</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="8" t="e">
+        <v>10.353305198849613</v>
+      </c>
+      <c r="I10" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="6" t="e">
+        <v>0.12553634610721237</v>
+      </c>
+      <c r="J10" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2055.8282477910689</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.369999999999997</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+        <v>0.11001267608780363</v>
+      </c>
+      <c r="M10" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3129868291207454</v>
+      </c>
+      <c r="N10" s="43">
+        <f t="shared" si="10"/>
+        <v>9.2560801883315239E-3</v>
+      </c>
+      <c r="O10" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.1391981166847601E-4</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="e">
+        <v>-2.0282604091122218</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="12"/>
+        <v>4.6349464450720579E-2</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="13"/>
+        <v>-2.0200095412879655</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="14"/>
+        <v>8.2508678242563249E-3</v>
+      </c>
+      <c r="U10" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="15"/>
+        <v>7.9400000000000012E-2</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="X10" s="31"/>
+      <c r="Z10" s="32"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="E11" s="11">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q10" s="8" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="10" t="e">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S10" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="31"/>
-      <c r="Y10" s="32"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11">
+        <v>2.2492537313432832</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="e">
+        <v>3.6739291346145932E-2</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="8" t="e">
+        <v>3.5354219349922427</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="6" t="e">
+        <v>6.8658033273187327E-2</v>
+      </c>
+      <c r="J11" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>825.15497548176904</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.00969</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
+        <v>1.5084886476205248E-2</v>
+      </c>
+      <c r="M11" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9165355227023659</v>
+      </c>
+      <c r="N11" s="43">
+        <f t="shared" si="10"/>
+        <v>-2.2645488982807977E-4</v>
+      </c>
+      <c r="O11" s="43">
+        <f t="shared" si="11"/>
+        <v>-4.1645488982807978E-4</v>
+      </c>
+      <c r="P11" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="13" t="e">
+        <v>-3.7212463990471711</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="12"/>
+        <v>2.2857604310697464</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="13"/>
+        <v>-3.8088377805605997</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="14"/>
+        <v>-8.7591381513428601E-2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>99.3</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="15"/>
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="Z11" s="32"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8">
+        <v>2.048</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.755</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="E12" s="11">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q11" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="6" t="e">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="Y11" s="32"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11">
+        <v>2.7125827814569536</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8" t="e">
+        <v>3.8291904642980296E-2</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="8" t="e">
+        <v>4.2636917891508119</v>
+      </c>
+      <c r="I12" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="6" t="e">
+        <v>7.5022975195966735E-2</v>
+      </c>
+      <c r="J12" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>963.78860996035746</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5462400000000001</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
+        <v>2.0493911900854849E-2</v>
+      </c>
+      <c r="M12" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9839817895097061</v>
+      </c>
+      <c r="N12" s="43">
+        <f t="shared" si="10"/>
+        <v>6.661903547547387E-5</v>
+      </c>
+      <c r="O12" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.8638096452452615E-4</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q12" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S12" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-3.596879478824182</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="12"/>
+        <v>1.7165789798547502</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="13"/>
+        <v>-3.5045134291327766</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="14"/>
+        <v>9.2366049691405383E-2</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="Y12" s="32"/>
-      <c r="AA12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="Z12" s="32"/>
+      <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="8">
+        <v>2.5219999999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.43</v>
+      </c>
       <c r="E13" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>3.0385542168674697</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="e">
+        <v>3.8540682354847845E-2</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="8" t="e">
+        <v>4.7760602013365681</v>
+      </c>
+      <c r="I13" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="6" t="e">
+        <v>7.8655733928896132E-2</v>
+      </c>
+      <c r="J13" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1060.294623398484</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0932599999999999</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
+        <v>2.5233654115090026E-2</v>
+      </c>
+      <c r="M13" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0254265591679785</v>
+      </c>
+      <c r="N13" s="43">
+        <f t="shared" si="10"/>
+        <v>3.6541187606731044E-4</v>
+      </c>
+      <c r="O13" s="43">
+        <f t="shared" si="11"/>
+        <v>-6.4588123932689549E-5</v>
+      </c>
+      <c r="P13" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q13" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S13" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-3.3665315444204134</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="12"/>
+        <v>1.0099871672168648</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="13"/>
+        <v>-3.317510452639544</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="14"/>
+        <v>4.902109178086933E-2</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="Y13" s="32"/>
-      <c r="AA13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="Z13" s="32"/>
+      <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="8">
+        <v>3.55</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.96399999999999997</v>
+      </c>
       <c r="E14" s="11">
+        <f t="shared" si="3"/>
+        <v>9.6400000000000001E-4</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="4"/>
+        <v>3.6979166666666665</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="e">
+        <v>3.9903567126832788E-2</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="8" t="e">
+        <v>5.8124592681230993</v>
+      </c>
+      <c r="I14" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="6" t="e">
+        <v>8.7531184436913614E-2</v>
+      </c>
+      <c r="J14" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="6" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1252.9059870962235</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
+        <v>3.551297790949106E-2</v>
+      </c>
+      <c r="M14" s="43">
+        <f t="shared" si="9"/>
+        <v>3.0979184845479169</v>
+      </c>
+      <c r="N14" s="43">
+        <f t="shared" si="10"/>
+        <v>1.083548140261876E-3</v>
+      </c>
+      <c r="O14" s="43">
+        <f t="shared" si="11"/>
+        <v>1.1954814026187604E-4</v>
+      </c>
+      <c r="P14" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q14" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S14" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-3.0159229660971691</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="12"/>
+        <v>0.45051294803241887</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="13"/>
+        <v>-2.9904195813534997</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="14"/>
+        <v>2.5503384743669422E-2</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="Y14" s="32"/>
-      <c r="AA14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="Z14" s="32"/>
+      <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.21</v>
+      </c>
       <c r="E15" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="4"/>
+        <v>3.9615384615384617</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8" t="e">
+        <v>3.9286568281325783E-2</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="8" t="e">
+        <v>6.2268252701193081</v>
+      </c>
+      <c r="I15" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="10" t="e">
+        <v>8.9952412127258435E-2</v>
+      </c>
+      <c r="J15" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1328.9418309291657</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2848000000000006</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
+        <v>4.1213124123269274E-2</v>
+      </c>
+      <c r="M15" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1235059718687253</v>
+      </c>
+      <c r="N15" s="43">
+        <f t="shared" si="10"/>
+        <v>1.5624731569539945E-3</v>
+      </c>
+      <c r="O15" s="43">
+        <f>N15-E15</f>
+        <v>3.5247315695399457E-4</v>
+      </c>
+      <c r="P15" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q15" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S15" s="6" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.9172146296835502</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="12"/>
+        <v>0.35892105942417507</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="13"/>
+        <v>-2.8749662604778479</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="14"/>
+        <v>4.2248369205702296E-2</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="Y15" s="32"/>
-      <c r="AA15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="Z15" s="32"/>
+      <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.706</v>
+      </c>
       <c r="E16" s="11">
+        <f t="shared" si="3"/>
+        <v>1.7060000000000001E-3</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>4.2477064220183482</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="e">
+        <v>4.0035135069523706E-2</v>
+      </c>
+      <c r="H16" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="8" t="e">
+        <v>6.6766297854899994</v>
+      </c>
+      <c r="I16" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="10" t="e">
+        <v>9.4226030915001521E-2</v>
+      </c>
+      <c r="J16" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1410.8516467169784</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0467000000000004</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
+        <v>4.6312828676296589E-2</v>
+      </c>
+      <c r="M16" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1494813494031955</v>
+      </c>
+      <c r="N16" s="43">
+        <f t="shared" si="10"/>
+        <v>1.978637584665815E-3</v>
+      </c>
+      <c r="O16" s="43">
+        <f t="shared" si="11"/>
+        <v>2.7263758466581495E-4</v>
+      </c>
+      <c r="P16" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q16" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S16" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.7680209731684959</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="12"/>
+        <v>0.25456886395266809</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.7577627398760196</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="14"/>
+        <v>1.0258233292476326E-2</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="Y16" s="32"/>
-      <c r="AA16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="Z16" s="32"/>
+      <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="8">
+        <v>5.05</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.135</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2.1219999999999999</v>
+      </c>
       <c r="E17" s="11">
+        <f t="shared" si="3"/>
+        <v>2.1219999999999998E-3</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
+        <v>4.4493392070484576</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="8" t="e">
+        <v>4.0179128284428559E-2</v>
+      </c>
+      <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="8" t="e">
+        <v>6.9935602238284504</v>
+      </c>
+      <c r="I17" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="10" t="e">
+        <v>9.6876846758545271E-2</v>
+      </c>
+      <c r="J17" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1468.1717699544558</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.7317499999999999</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
+        <v>5.0512753092659679E-2</v>
+      </c>
+      <c r="M17" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1667768691899538</v>
+      </c>
+      <c r="N17" s="43">
+        <f t="shared" si="10"/>
+        <v>2.352825064917794E-3</v>
+      </c>
+      <c r="O17" s="43">
+        <f t="shared" si="11"/>
+        <v>2.3082506491779427E-4</v>
+      </c>
+      <c r="P17" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="13" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q17" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S17" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.6732546204346783</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="12"/>
+        <v>0.20466280956797916</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.6797236119766605</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="14"/>
+        <v>-6.4689915419822164E-3</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="AA17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="8">
+        <v>5.56</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2.61</v>
+      </c>
       <c r="E18" s="11">
+        <f t="shared" si="3"/>
+        <v>2.6099999999999999E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
+        <v>4.6722689075630255</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="e">
+        <v>4.01519752096854E-2</v>
+      </c>
+      <c r="H18" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="8" t="e">
+        <v>7.3439655792481613</v>
+      </c>
+      <c r="I18" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="10" t="e">
+        <v>9.9669804075500731E-2</v>
+      </c>
+      <c r="J18" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1531.1678022583326</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.6163999999999996</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
+        <v>5.5612733254174804E-2</v>
+      </c>
+      <c r="M18" s="43">
+        <f t="shared" si="9"/>
+        <v>3.1850227880865321</v>
+      </c>
+      <c r="N18" s="43">
+        <f t="shared" si="10"/>
+        <v>2.836037902528061E-3</v>
+      </c>
+      <c r="O18" s="43">
+        <f t="shared" si="11"/>
+        <v>2.2603790252806108E-4</v>
+      </c>
+      <c r="P18" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q18" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S18" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.5833594926617192</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="12"/>
+        <v>0.16639635321963672</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.5973961875357041</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="14"/>
+        <v>-1.4036694873984956E-2</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="AA18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="8">
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.706</v>
+      </c>
       <c r="E19" s="11">
+        <f t="shared" si="3"/>
+        <v>3.7060000000000001E-3</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>5.1115384615384611</v>
+      </c>
+      <c r="G19" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="8" t="e">
+        <v>4.0064906986310531E-2</v>
+      </c>
+      <c r="H19" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="8" t="e">
+        <v>8.0344182368820967</v>
+      </c>
+      <c r="I19" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="10" t="e">
+        <v>0.10530144862084719</v>
+      </c>
+      <c r="J19" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1654.1348225111649</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6385000000000005</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
+        <v>6.6462715111557089E-2</v>
+      </c>
+      <c r="M19" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2185709044223096</v>
+      </c>
+      <c r="N19" s="43">
+        <f t="shared" si="10"/>
+        <v>3.9405477978897534E-3</v>
+      </c>
+      <c r="O19" s="43">
+        <f t="shared" si="11"/>
+        <v>2.3454779788975328E-4</v>
+      </c>
+      <c r="P19" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q19" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S19" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.4310945850171213</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="12"/>
+        <v>0.11718685426423417</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.4460237064660841</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="14"/>
+        <v>-1.4929121448962857E-2</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="AA19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="8">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.335</v>
+      </c>
+      <c r="D20" s="8">
+        <v>4.2530000000000001</v>
+      </c>
       <c r="E20" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2529999999999998E-3</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="4"/>
+        <v>5.2696629213483153</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="e">
+        <v>4.0177576699766231E-2</v>
+      </c>
+      <c r="H20" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="8" t="e">
+        <v>8.2829614207303202</v>
+      </c>
+      <c r="I20" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="10" t="e">
+        <v>0.10750915401680187</v>
+      </c>
+      <c r="J20" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1698.0217945010081</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.3917249999999992</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
+        <v>7.0362665704192875E-2</v>
+      </c>
+      <c r="M20" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2299432602134575</v>
+      </c>
+      <c r="N20" s="43">
+        <f t="shared" si="10"/>
+        <v>4.3519737738226E-3</v>
+      </c>
+      <c r="O20" s="43">
+        <f t="shared" si="11"/>
+        <v>9.8973773822600211E-5</v>
+      </c>
+      <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q20" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S20" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.3713046172859769</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="12"/>
+        <v>0.10211485584369899</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.3947104913072152</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="14"/>
+        <v>-2.3405874021238393E-2</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="AA20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="8">
+        <v>7.51</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1.375</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4.7949999999999999</v>
+      </c>
       <c r="E21" s="11">
+        <f t="shared" si="3"/>
+        <v>4.7949999999999998E-3</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="4"/>
+        <v>5.4618181818181819</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="8" t="e">
+        <v>4.0382605109594773E-2</v>
+      </c>
+      <c r="H21" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="8" t="e">
+        <v>8.5849948966884106</v>
+      </c>
+      <c r="I21" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="10" t="e">
+        <v>0.11027767976291528</v>
+      </c>
+      <c r="J21" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1751.0848356414392</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.32625</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
+        <v>7.5112586328790462E-2</v>
+      </c>
+      <c r="M21" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2433071870648513</v>
+      </c>
+      <c r="N21" s="43">
+        <f t="shared" si="10"/>
+        <v>4.8624292952918081E-3</v>
+      </c>
+      <c r="O21" s="43">
+        <f t="shared" si="11"/>
+        <v>6.7429295291808293E-5</v>
+      </c>
+      <c r="P21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q21" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S21" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.3192113884933176</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="12"/>
+        <v>9.0572363274922171E-2</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.3344111068624596</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="14"/>
+        <v>-1.5199718369141912E-2</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="8">
+        <v>8</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.3979999999999997</v>
+      </c>
       <c r="E22" s="11">
+        <f t="shared" si="3"/>
+        <v>5.398E-3</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="4"/>
+        <v>5.6338028169014089</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8" t="e">
+        <v>4.0294820929219009E-2</v>
+      </c>
+      <c r="H22" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="8" t="e">
+        <v>8.855323780834242</v>
+      </c>
+      <c r="I22" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="10" t="e">
+        <v>0.11253388050332915</v>
+      </c>
+      <c r="J22" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1798.3274628696131</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
+        <v>8.0012601507512549E-2</v>
+      </c>
+      <c r="M22" s="43">
+        <f t="shared" si="9"/>
+        <v>3.254868776589817</v>
+      </c>
+      <c r="N22" s="43">
+        <f t="shared" si="10"/>
+        <v>5.4270834193856461E-3</v>
+      </c>
+      <c r="O22" s="43">
+        <f t="shared" si="11"/>
+        <v>2.9083419385646063E-5</v>
+      </c>
+      <c r="P22" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q22" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R22" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S22" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.267767119779502</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="12"/>
+        <v>8.0454702093970321E-2</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.2822440500302363</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="14"/>
+        <v>-1.4476930250734377E-2</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="AA22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8">
+        <v>8.48</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.9850000000000003</v>
+      </c>
       <c r="E23" s="11">
+        <f t="shared" si="3"/>
+        <v>5.9850000000000007E-3</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="4"/>
+        <v>5.8082191780821919</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="e">
+        <v>4.0367639900393916E-2</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="8" t="e">
+        <v>9.1294749006244515</v>
+      </c>
+      <c r="I23" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="10" t="e">
+        <v>0.11498876731659599</v>
+      </c>
+      <c r="J23" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1845.9965298444438</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.380800000000001</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
+        <v>8.4812567464969485E-2</v>
+      </c>
+      <c r="M23" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2662308802918294</v>
+      </c>
+      <c r="N23" s="43">
+        <f t="shared" si="10"/>
+        <v>5.984664004512601E-3</v>
+      </c>
+      <c r="O23" s="43">
+        <f t="shared" si="11"/>
+        <v>-3.359954873997234E-7</v>
+      </c>
+      <c r="P23" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q23" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R23" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S23" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.2229358452575703</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
+        <v>7.2563823208563374E-2</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.2309770933305018</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="14"/>
+        <v>-8.041248072931495E-3</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="AA23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="8">
+        <v>9.4550000000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="D24" s="8">
+        <v>7.2270000000000003</v>
+      </c>
       <c r="E24" s="11">
+        <f t="shared" si="3"/>
+        <v>7.2270000000000008E-3</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="4"/>
+        <v>6.1396103896103895</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="e">
+        <v>4.0392959175602323E-2</v>
+      </c>
+      <c r="H24" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="8" t="e">
+        <v>9.6503622251508592</v>
+      </c>
+      <c r="I24" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="10" t="e">
+        <v>0.11961112399303167</v>
+      </c>
+      <c r="J24" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1935.8976949500445</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.560700000000001</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
+        <v>9.4562540680757937E-2</v>
+      </c>
+      <c r="M24" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2868824027179118</v>
+      </c>
+      <c r="N24" s="43">
+        <f t="shared" si="10"/>
+        <v>7.1753672936174682E-3</v>
+      </c>
+      <c r="O24" s="43">
+        <f t="shared" si="11"/>
+        <v>-5.1632706382532569E-5</v>
+      </c>
+      <c r="P24" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q24" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S24" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.141041945281994</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" si="12"/>
+        <v>6.0093328061886227E-2</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.1377953433862533</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="14"/>
+        <v>3.2466018957406639E-3</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="AA24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="8">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1.59</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8.0500000000000007</v>
+      </c>
       <c r="E25" s="11">
+        <f t="shared" si="3"/>
+        <v>8.0500000000000016E-3</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="4"/>
+        <v>6.3081761006289305</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="e">
+        <v>4.016947490317143E-2</v>
+      </c>
+      <c r="H25" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="8" t="e">
+        <v>9.9153171761721506</v>
+      </c>
+      <c r="I25" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="10" t="e">
+        <v>0.12179629335092453</v>
+      </c>
+      <c r="J25" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1981.2899822767276</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.947699999999999</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
+        <v>0.10031260190025976</v>
+      </c>
+      <c r="M25" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2969480436789005</v>
+      </c>
+      <c r="N25" s="43">
+        <f t="shared" si="10"/>
+        <v>7.9329733590280151E-3</v>
+      </c>
+      <c r="O25" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.1702664097198653E-4</v>
+      </c>
+      <c r="P25" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q25" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S25" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.0942041196321313</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="12"/>
+        <v>5.3949625081149283E-2</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.0923781571999776</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="14"/>
+        <v>1.825962432153716E-3</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="AA25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8">
+        <v>10.53</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8.7690000000000001</v>
+      </c>
       <c r="E26" s="11">
+        <f t="shared" si="3"/>
+        <v>8.7690000000000008E-3</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="4"/>
+        <v>6.4601226993865035</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8" t="e">
+        <v>4.0104677520987432E-2</v>
+      </c>
+      <c r="H26" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="8" t="e">
+        <v>10.15414987463973</v>
+      </c>
+      <c r="I26" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="10" t="e">
+        <v>0.12389659481332854</v>
+      </c>
+      <c r="J26" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2022.0122937215913</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.163899999999998</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
+        <v>0.10531261510379465</v>
+      </c>
+      <c r="M26" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3057837917491555</v>
+      </c>
+      <c r="N26" s="43">
+        <f t="shared" si="10"/>
+        <v>8.5972851807672411E-3</v>
+      </c>
+      <c r="O26" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.7171481923275965E-4</v>
+      </c>
+      <c r="P26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q26" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R26" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S26" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.057049929922901</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="12"/>
+        <v>4.9526112658598673E-2</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.0525103716553605</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="14"/>
+        <v>4.5395582675404889E-3</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="AA26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="8">
+        <v>11.41</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="D27" s="8">
+        <v>10.06</v>
+      </c>
       <c r="E27" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0060000000000001E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="4"/>
+        <v>6.7117647058823531</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="e">
+        <v>3.9916775647606061E-2</v>
+      </c>
+      <c r="H27" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="8" t="e">
+        <v>10.549685806017099</v>
+      </c>
+      <c r="I27" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="10" t="e">
+        <v>0.12734517268213183</v>
+      </c>
+      <c r="J27" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2089.047376678302</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.396999999999998</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
+        <v>0.11411266362678596</v>
+      </c>
+      <c r="M27" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3199482892845902</v>
+      </c>
+      <c r="N27" s="43">
+        <f t="shared" si="10"/>
+        <v>9.8170473326549788E-3</v>
+      </c>
+      <c r="O27" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.429526673450224E-4</v>
+      </c>
+      <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q27" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R27" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S27" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-1.9974020192800914</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="12"/>
+        <v>4.3170425636506138E-2</v>
+      </c>
+      <c r="R27" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.9885987316221865</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="14"/>
+        <v>8.8032876579049457E-3</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="AA27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="8">
+        <v>11.96</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="D28" s="8">
+        <v>10.84</v>
+      </c>
       <c r="E28" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0840000000000001E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="4"/>
+        <v>6.8735632183908049</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="e">
+        <v>3.991910804182338E-2</v>
+      </c>
+      <c r="H28" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="8" t="e">
+        <v>10.804003939271844</v>
+      </c>
+      <c r="I28" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="10" t="e">
+        <v>0.12967830005481237</v>
+      </c>
+      <c r="J28" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>2131.8815681314481</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.810400000000001</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
+        <v>0.11961265652095518</v>
+      </c>
+      <c r="M28" s="43">
+        <f t="shared" si="9"/>
+        <v>3.3287630747749728</v>
+      </c>
+      <c r="N28" s="43">
+        <f t="shared" si="10"/>
+        <v>1.0589073585611914E-2</v>
+      </c>
+      <c r="O28" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.5092641438808662E-4</v>
+      </c>
+      <c r="P28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q28" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S28" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-1.9649707177976319</v>
+      </c>
+      <c r="Q28" s="8">
+        <f t="shared" si="12"/>
+        <v>4.0064066596240941E-2</v>
+      </c>
+      <c r="R28" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.9488255313500531</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" si="14"/>
+        <v>1.6145186447578785E-2</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -14411,68 +14706,78 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="8">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.15</v>
+      </c>
       <c r="E29" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="4"/>
+        <v>2.0692913385826772</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="e">
+        <v>3.6192959917035666E-2</v>
+      </c>
+      <c r="H29" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="8" t="e">
+        <v>3.2525534520045261</v>
+      </c>
+      <c r="I29" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="10" t="e">
+        <v>6.6359788960420385E-2</v>
+      </c>
+      <c r="J29" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>770.84525157320172</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83439000000000008</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="9">
-        <v>0</v>
-      </c>
-      <c r="O29" s="9">
+        <v>1.3155334469332204E-2</v>
+      </c>
+      <c r="M29" s="43">
+        <f t="shared" si="9"/>
+        <v>2.8869672014837899</v>
+      </c>
+      <c r="N29" s="43">
+        <f t="shared" si="10"/>
+        <v>-3.2220712001298883E-4</v>
+      </c>
+      <c r="O29" s="43">
+        <f t="shared" si="11"/>
+        <v>-4.7220712001298879E-4</v>
+      </c>
+      <c r="P29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q29" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S29" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-3.8239087409443187</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="12"/>
+        <v>2.8952965460216791</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.9422530250745247</v>
+      </c>
+      <c r="S29" s="8">
+        <f t="shared" si="14"/>
+        <v>-0.11834428413020603</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -14481,68 +14786,78 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="8">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.16</v>
+      </c>
       <c r="E30" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="4"/>
+        <v>2.5013888888888891</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="e">
+        <v>3.7414888943211745E-2</v>
+      </c>
+      <c r="H30" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="8" t="e">
+        <v>3.9317330110383861</v>
+      </c>
+      <c r="I30" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="10" t="e">
+        <v>7.186255262036953E-2</v>
+      </c>
+      <c r="J30" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>900.80972813552057</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2967199999999999</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="9">
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
+        <v>1.8024386258621957E-2</v>
+      </c>
+      <c r="M30" s="43">
+        <f t="shared" si="9"/>
+        <v>2.9546330676191301</v>
+      </c>
+      <c r="N30" s="43">
+        <f t="shared" si="10"/>
+        <v>-6.9673585606890801E-5</v>
+      </c>
+      <c r="O30" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.2967358560689081E-4</v>
+      </c>
+      <c r="P30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q30" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S30" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-3.795880017344075</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="12"/>
+        <v>2.7143405118953234</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.636937819352891</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="14"/>
+        <v>0.15894219799118403</v>
       </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -14551,68 +14866,78 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:28">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="8">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="D31" s="8">
+        <v>6.23</v>
+      </c>
       <c r="E31" s="11">
+        <f t="shared" si="3"/>
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="4"/>
+        <v>5.8926174496644288</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8" t="e">
+        <v>4.0113202056669704E-2</v>
+      </c>
+      <c r="H31" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="8" t="e">
+        <v>9.2621337894235705</v>
+      </c>
+      <c r="I31" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="10" t="e">
+        <v>0.11593545718153947</v>
+      </c>
+      <c r="J31" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1868.9757739298748</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.082199999999998</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
+        <v>8.7812642028354898E-2</v>
+      </c>
+      <c r="M31" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2716036719958663</v>
+      </c>
+      <c r="N31" s="43">
+        <f t="shared" si="10"/>
+        <v>6.3677821690972846E-3</v>
+      </c>
+      <c r="O31" s="43">
+        <f t="shared" si="11"/>
+        <v>1.3778216909728427E-4</v>
+      </c>
+      <c r="P31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q31" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S31" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.2055119533408303</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="12"/>
+        <v>6.9710189711597398E-2</v>
+      </c>
+      <c r="R31" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.2067345158227152</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="14"/>
+        <v>-1.2225624818849035E-3</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -14621,68 +14946,78 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:28">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="8">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="D32" s="8">
+        <v>6.78</v>
+      </c>
       <c r="E32" s="11">
+        <f t="shared" si="3"/>
+        <v>6.7800000000000004E-3</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="4"/>
+        <v>6.0718954248366011</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="8" t="e">
+        <v>4.0220203212707827E-2</v>
+      </c>
+      <c r="H32" s="10">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="8" t="e">
+        <v>9.543926491177217</v>
+      </c>
+      <c r="I32" s="10">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="10" t="e">
+        <v>0.11852002743334576</v>
+      </c>
+      <c r="J32" s="18">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="18" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1917.5990803438317</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.213699999999999</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="9">
-        <v>0</v>
+        <v>9.291259817699643E-2</v>
+      </c>
+      <c r="M32" s="43">
+        <f t="shared" si="9"/>
+        <v>3.2827578127435286</v>
+      </c>
+      <c r="N32" s="43">
+        <f t="shared" si="10"/>
+        <v>6.985829222458521E-3</v>
       </c>
       <c r="O32" s="9">
+        <f t="shared" si="11"/>
+        <v>2.0582922245852061E-4</v>
+      </c>
+      <c r="P32" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q32" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S32" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>-2.1687703061329366</v>
+      </c>
+      <c r="Q32" s="8">
+        <f t="shared" si="12"/>
+        <v>6.4055233319063681E-2</v>
+      </c>
+      <c r="R32" s="8">
+        <f t="shared" si="13"/>
+        <v>-2.1564059089264536</v>
+      </c>
+      <c r="S32" s="8">
+        <f t="shared" si="14"/>
+        <v>1.236439720648308E-2</v>
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -14691,69 +15026,28 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:28">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="11">
-        <f>D33*10^-3</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="8" t="e">
-        <f>B33/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="10" t="e">
-        <f>F33/$C$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="10" t="e">
-        <f>SQRT(((G33/$C$2)^2)+(((F33*$C$3)/($C$2^2))^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="18" t="e">
-        <f>-1.6181*(H33^2)+202.98*H33+127.76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="9">
-        <v>0</v>
-      </c>
-      <c r="O33" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q33" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S33" s="8" t="e">
-        <f>R33-P33</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
@@ -14761,69 +15055,28 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:28">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="11">
-        <f>D34*10^-3</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8" t="e">
-        <f>B34/C34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="10" t="e">
-        <f>F34/$C$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="10" t="e">
-        <f>SQRT(((G34/$C$2)^2)+(((F34*$C$3)/($C$2^2))^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="18" t="e">
-        <f>-1.6181*(H34^2)+202.98*H34+127.76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="9">
-        <v>0</v>
-      </c>
-      <c r="O34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q34" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S34" s="8" t="e">
-        <f>R34-P34</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
@@ -14831,69 +15084,28 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:28">
       <c r="A35" s="1"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="11">
-        <f>D35*10^-3</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="8" t="e">
-        <f>B35/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="10" t="e">
-        <f>F35/$C$2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="10" t="e">
-        <f>SQRT(((G35/$C$2)^2)+(((F35*$C$3)/($C$2^2))^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="18" t="e">
-        <f>-1.6181*(H35^2)+202.98*H35+127.76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="13" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="9">
-        <v>0</v>
-      </c>
-      <c r="O35" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q35" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S35" s="8" t="e">
-        <f>R35-P35</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -14901,8 +15113,9 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -14929,140 +15142,164 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:28">
       <c r="P38" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="11" cm="1">
-        <f t="array" ref="Q38:R42">LINEST(E15:E35,K15:K35,1,1)</f>
-        <v>0</v>
+      <c r="Q38" s="11">
+        <f t="array" ref="Q38:R42">LINEST(E7:E32,K7:K32,1,1)</f>
+        <v>5.4621922524192279E-4</v>
       </c>
       <c r="R38" s="9">
-        <v>0</v>
+        <v>-7.7796697936259682E-4</v>
       </c>
       <c r="S38" s="34" t="s">
         <v>5</v>
       </c>
       <c r="U38" s="29"/>
-      <c r="V38" s="7"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="7"/>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:28">
       <c r="P39" s="34" t="s">
         <v>3</v>
       </c>
       <c r="Q39" s="11">
-        <v>0</v>
+        <v>7.2091064188240618E-6</v>
       </c>
       <c r="R39" s="9">
-        <v>0</v>
+        <v>8.0318602443335628E-5</v>
       </c>
       <c r="S39" s="34" t="s">
         <v>6</v>
       </c>
       <c r="U39" s="29"/>
-      <c r="V39" s="7"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="7"/>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:28">
       <c r="P40" s="34" t="s">
         <v>4</v>
       </c>
       <c r="Q40" s="9">
-        <v>1</v>
+        <v>0.99583679000401104</v>
       </c>
       <c r="R40" s="9">
-        <v>0</v>
+        <v>2.260492126621317E-4</v>
       </c>
       <c r="S40" s="34" t="s">
         <v>7</v>
       </c>
       <c r="U40" s="29"/>
-      <c r="V40" s="7"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="7"/>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:28">
       <c r="P41" s="7"/>
-      <c r="Q41" s="4" t="e">
-        <v>#NUM!</v>
+      <c r="Q41" s="4">
+        <v>5740.7824690857497</v>
       </c>
       <c r="R41" s="4">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S41" s="1"/>
       <c r="U41" s="12"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="1"/>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:28">
       <c r="P42" s="7"/>
       <c r="Q42" s="4">
-        <v>0</v>
+        <v>2.9334391796753136E-4</v>
       </c>
       <c r="R42" s="4">
-        <v>0</v>
+        <v>1.2263579170840716E-6</v>
       </c>
       <c r="S42" s="1"/>
       <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:28">
       <c r="P43" s="7"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:28">
       <c r="P44" s="7"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:28">
       <c r="P45" s="7"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:28">
       <c r="P46" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Q46" s="6" t="e" cm="1">
-        <f t="array" ref="Q46">LINEST(P16:P35,M16:M35,1,1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R46" s="6"/>
+      <c r="Q46" s="6" cm="1">
+        <f t="array" ref="Q46:R50">LINEST(P16:P32,M16:M32,1,1)</f>
+        <v>4.5121007556596746</v>
+      </c>
+      <c r="R46" s="6">
+        <v>-16.96853991645423</v>
+      </c>
       <c r="S46" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:28">
       <c r="P47" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="Q47" s="6">
+        <v>0.10724918009592325</v>
+      </c>
+      <c r="R47" s="6">
+        <v>0.34500049990750414</v>
+      </c>
       <c r="S47" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:28">
       <c r="P48" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="8"/>
+      <c r="Q48" s="13">
+        <v>0.99159656862274048</v>
+      </c>
+      <c r="R48" s="8">
+        <v>5.2545287239450192E-2</v>
+      </c>
       <c r="S48" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="15:19">
       <c r="P49" s="1"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="Q49" s="4">
+        <v>1769.9851241234128</v>
+      </c>
+      <c r="R49" s="4">
+        <v>15</v>
+      </c>
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="15:19">
       <c r="P50" s="1"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
+      <c r="Q50" s="4">
+        <v>4.8869416912025709</v>
+      </c>
+      <c r="R50" s="4">
+        <v>4.1415108166144909E-2</v>
+      </c>
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="15:19">
@@ -15086,9 +15323,9 @@
       <c r="P53" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="Q53" s="6" t="e">
+      <c r="Q53" s="6">
         <f>$Q$46</f>
-        <v>#VALUE!</v>
+        <v>4.5121007556596746</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -15099,7 +15336,7 @@
       </c>
       <c r="Q54" s="6">
         <f>$Q$47</f>
-        <v>0</v>
+        <v>0.10724918009592325</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -15108,9 +15345,9 @@
       <c r="P55" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Q55" s="10" t="e">
+      <c r="Q55" s="10">
         <f>(Q54/Q53)*100</f>
-        <v>#VALUE!</v>
+        <v>2.3769234310957512</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -15119,9 +15356,9 @@
       <c r="P56" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="Q56" s="10" t="e">
+      <c r="Q56" s="10">
         <f>((-Q52+Q53)/Q52)*100</f>
-        <v>#VALUE!</v>
+        <v>12.802518891491864</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
